--- a/SRS_sheet_V1.3.xlsx
+++ b/SRS_sheet_V1.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10656" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10656"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="178">
   <si>
     <t xml:space="preserve">System Requirements </t>
   </si>
@@ -71,14 +71,6 @@
  doesn't create account user can't
  login so this page goes the user
  to create account before login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After User create account or login
- successfully system should get 
-a Popup Message ask the user
-"can we access your location to 
-help you know the nearby
- restraunts so you can get food FASTER" </t>
   </si>
   <si>
     <t xml:space="preserve">The system should get customer 
@@ -588,10 +580,6 @@
     <t>its's not dup. It's explained what the register now link do</t>
   </si>
   <si>
-    <t>i think i am specify enough "login OR creat account"
-both of them :)</t>
-  </si>
-  <si>
     <t>After the user create account or
  login to the website, the login 
 page shall navigate to home page</t>
@@ -604,32 +592,42 @@
     <t xml:space="preserve">The Nearby 5 restaurants system shall be sorted this restaurants by Alphabetic Order </t>
   </si>
   <si>
-    <t>The Page of nearby restaurants
- shall contains Five Restaurants
- Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The End of Home Page have Two Buttons
-Next /// Previous Buttons </t>
+    <t xml:space="preserve">i found this in description of the project by customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's not a duplicate </t>
+  </si>
+  <si>
+    <t>you can ask in SIQ</t>
+  </si>
+  <si>
+    <t>it's completely different</t>
+  </si>
+  <si>
+    <t>The Admin of the system have feature to  "add restaurants contact"</t>
   </si>
   <si>
     <t>Login Page should contain 
-"UserID, Password, login button,  Offers &amp; Promotions Screen &amp; Register now Link"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i found this in description of the project by customer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">it's not a duplicate </t>
-  </si>
-  <si>
-    <t>you can ask in SIQ</t>
-  </si>
-  <si>
-    <t>it's completely different</t>
-  </si>
-  <si>
-    <t>The Admin of the system have feature to  "add restaurants contact"</t>
+"UserID, Password, login button &amp; Register now Link"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After User create account 
+ successfully system should get 
+a Popup Message ask the user
+"can we access your location to 
+help you know the nearby
+ restraunts so you can get food FASTER" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add next / pervious for the other pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add next Button for the second page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Page of nearby restaurants
+ shall contain first Five Restaurants
+ Only per page </t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1133,7 +1131,7 @@
     <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1147,692 +1145,701 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="101.25" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="101.25" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="102" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="102" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="102" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="122.4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="121.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="122.4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="121.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="102" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="102" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="122.4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="121.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="122.4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="121.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1845,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,527 +1869,527 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="99.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="46.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="E11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
